--- a/biology/Botanique/Hermann_Sello/Hermann_Sello.xlsx
+++ b/biology/Botanique/Hermann_Sello/Hermann_Sello.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Hermann Sello (né le 25 septembre 1800 à Caputh, mort le 28 décembre 1876 à Potsdam) est un jardinier allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Sello appartient à famille de jardiniers (de), il est le fils de Ludwig Sello (de).
 Après la formation traditionnelle de jardinier de cour et le voyage éducatif obligatoire qui le conduisit à Vienne, en Italie, en France et en Angleterre, Hermann Sello devient jardinier du prince en 1828. Jusqu'en 1837, il travaille dans le jardin paysager du château de Charlottenhof près de Potsdam et le dessine sous la direction de Peter Joseph Lenné, directeur du jardin depuis 1824.
